--- a/frontend/web/uploads/files/price.xlsx
+++ b/frontend/web/uploads/files/price.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="225" windowWidth="18960" windowHeight="11085"/>
@@ -10,7 +10,7 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -678,51 +678,51 @@
     <t>Кузов</t>
   </si>
   <si>
+    <t xml:space="preserve">Фронтальный погрузчик </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Телескопический погрузчик </t>
+  </si>
+  <si>
+    <t>12/14/17м</t>
+  </si>
+  <si>
+    <t>1600/1700/1900</t>
+  </si>
+  <si>
+    <t>12800/13600/15200</t>
+  </si>
+  <si>
+    <t>35-160 тонн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аренда низкорамной платформы  </t>
+  </si>
+  <si>
+    <t>САМОСВАЛЫ, ДЛИННОМЕРЫ,ТЬРАЛЫ.</t>
+  </si>
+  <si>
+    <t>Экскаватор полноповоротный, колесный,гидромолот</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
 Общество с ограниченной ответственностью
 «РентПромТранс»
 127576, Россия, г. Москва, ул. Илимская, д.3-Г, оф. 405
-Тел. 8-495-642-44-02                                                                                                                                                                                 e-mail: info@rentpromtrans.ru
+Тел. 8-495-642-44-02                                                                                                                             e-mail: info@rentpromtrans.ru
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фронтальный погрузчик </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Телескопический погрузчик </t>
-  </si>
-  <si>
-    <t>12/14/17м</t>
-  </si>
-  <si>
-    <t>1600/1700/1900</t>
-  </si>
-  <si>
-    <t>12800/13600/15200</t>
-  </si>
-  <si>
-    <t>35-160 тонн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аренда низкорамной платформы  </t>
-  </si>
-  <si>
-    <t>САМОСВАЛЫ, ДЛИННОМЕРЫ,ТЬРАЛЫ.</t>
-  </si>
-  <si>
-    <t>Экскаватор полноповоротный, колесный,гидромолот</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
     <numFmt numFmtId="165" formatCode="###0.0;###0.0"/>
     <numFmt numFmtId="166" formatCode="###0.00;###0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -944,21 +944,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -968,9 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1015,10 +1015,10 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1121,7 +1121,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1156,7 +1155,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1332,14 +1330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="64.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36" style="1" customWidth="1"/>
@@ -1352,25 +1350,25 @@
     <col min="9" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="128.25" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>107</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>96</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>97</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>98</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>99</v>
       </c>
@@ -1449,7 +1447,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>100</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>101</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>102</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>103</v>
       </c>
@@ -1498,7 +1496,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>104</v>
       </c>
@@ -1509,16 +1507,16 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>107</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>193</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>193</v>
       </c>
@@ -1565,7 +1563,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>193</v>
       </c>
@@ -1581,7 +1579,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>193</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>193</v>
       </c>
@@ -1613,7 +1611,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>193</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="23" t="s">
         <v>193</v>
       </c>
@@ -1645,7 +1643,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="23" t="s">
         <v>193</v>
       </c>
@@ -1661,16 +1659,16 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -1685,7 +1683,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="23" t="s">
         <v>194</v>
       </c>
@@ -1701,9 +1699,9 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="19"/>
@@ -1715,16 +1713,16 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="23" t="s">
         <v>195</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="23" t="s">
         <v>195</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="23" t="s">
         <v>196</v>
       </c>
@@ -1787,7 +1785,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="23" t="s">
         <v>196</v>
       </c>
@@ -1803,23 +1801,23 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="23"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="20"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>107</v>
       </c>
@@ -1834,7 +1832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="23" t="s">
         <v>178</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="23" t="s">
         <v>179</v>
       </c>
@@ -1864,16 +1862,16 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>107</v>
       </c>
@@ -1888,7 +1886,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="23" t="s">
         <v>176</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="23" t="s">
         <v>177</v>
       </c>
@@ -1918,16 +1916,16 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>107</v>
       </c>
@@ -1942,9 +1940,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="9">
         <v>2.1</v>
@@ -1958,9 +1956,9 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="27">
         <v>4.5</v>
@@ -1974,33 +1972,33 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="32" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>107</v>
       </c>
@@ -2017,7 +2015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="18" t="s">
         <v>115</v>
       </c>
@@ -2035,7 +2033,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>116</v>
       </c>
@@ -2053,7 +2051,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="18" t="s">
         <v>117</v>
       </c>
@@ -2071,7 +2069,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="18" t="s">
         <v>118</v>
       </c>
@@ -2089,7 +2087,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="18" t="s">
         <v>119</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
         <v>120</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="18" t="s">
         <v>121</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="18" t="s">
         <v>122</v>
       </c>
@@ -2161,7 +2159,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>123</v>
       </c>
@@ -2179,7 +2177,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="18" t="s">
         <v>124</v>
       </c>
@@ -2197,7 +2195,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>125</v>
       </c>
@@ -2215,16 +2213,16 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="32" t="s">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>107</v>
       </c>
@@ -2241,7 +2239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>126</v>
       </c>
@@ -2259,7 +2257,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>127</v>
       </c>
@@ -2277,7 +2275,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>128</v>
       </c>
@@ -2295,7 +2293,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="18" t="s">
         <v>129</v>
       </c>
@@ -2313,7 +2311,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="18" t="s">
         <v>130</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="18" t="s">
         <v>131</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="18" t="s">
         <v>132</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="18" t="s">
         <v>133</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="18" t="s">
         <v>134</v>
       </c>
@@ -2403,7 +2401,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="18" t="s">
         <v>135</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="24" t="s">
         <v>4</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="24" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +2449,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="24" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="24" t="s">
         <v>7</v>
       </c>
@@ -2481,7 +2479,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="24" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2494,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="24" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2509,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="24" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2524,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="24" t="s">
         <v>11</v>
       </c>
@@ -2541,7 +2539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="24" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="24" t="s">
         <v>13</v>
       </c>
@@ -2571,7 +2569,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="24" t="s">
         <v>14</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="24" t="s">
         <v>15</v>
       </c>
@@ -2601,7 +2599,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="24" t="s">
         <v>16</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="24" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +2631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="24" t="s">
         <v>18</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="24" t="s">
         <v>19</v>
       </c>
@@ -2667,7 +2665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="24" t="s">
         <v>59</v>
       </c>
@@ -2684,16 +2682,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="32" t="s">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A89" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="23"/>
       <c r="B90" s="4"/>
       <c r="C90" s="6" t="s">
@@ -2704,7 +2702,7 @@
       </c>
       <c r="E90" s="13"/>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="23" t="s">
         <v>62</v>
       </c>
@@ -2717,7 +2715,7 @@
       </c>
       <c r="E91" s="13"/>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="23" t="s">
         <v>64</v>
       </c>
@@ -2730,7 +2728,7 @@
       </c>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="23" t="s">
         <v>65</v>
       </c>
@@ -2743,7 +2741,7 @@
       </c>
       <c r="E93" s="13"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="23" t="s">
         <v>66</v>
       </c>
@@ -2756,7 +2754,7 @@
       </c>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="A95" s="23" t="s">
         <v>67</v>
       </c>
@@ -2769,7 +2767,7 @@
       </c>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="23" t="s">
         <v>69</v>
       </c>
@@ -2782,7 +2780,7 @@
       </c>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1">
       <c r="A97" s="23" t="s">
         <v>70</v>
       </c>
@@ -2795,7 +2793,7 @@
       </c>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1">
       <c r="A98" s="23" t="s">
         <v>71</v>
       </c>
@@ -2808,16 +2806,16 @@
       </c>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="32" t="s">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A99" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1">
       <c r="A100" s="7" t="s">
         <v>107</v>
       </c>
@@ -2834,7 +2832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1">
       <c r="A101" s="23" t="s">
         <v>181</v>
       </c>
@@ -2852,7 +2850,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1">
       <c r="A102" s="23" t="s">
         <v>182</v>
       </c>
@@ -2870,7 +2868,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1">
       <c r="A103" s="23" t="s">
         <v>183</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1">
       <c r="A104" s="23" t="s">
         <v>184</v>
       </c>
@@ -2906,16 +2904,16 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="32" t="s">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A105" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1">
       <c r="A106" s="30" t="s">
         <v>107</v>
       </c>
@@ -2930,11 +2928,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A107" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="33"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="9">
         <v>18</v>
       </c>
@@ -2946,11 +2944,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A108" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="33"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="9">
         <v>17</v>
       </c>
@@ -2962,11 +2960,11 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A109" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="33"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="9">
         <v>22</v>
       </c>
@@ -2978,7 +2976,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1">
       <c r="A110" s="25" t="s">
         <v>174</v>
       </c>
@@ -2994,11 +2992,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A111" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="33"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="9">
         <v>22</v>
       </c>
@@ -3010,11 +3008,11 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33" t="s">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A112" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B112" s="33"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="9">
         <v>22</v>
       </c>
@@ -3026,11 +3024,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A113" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="33"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="9">
         <v>28</v>
       </c>
@@ -3042,11 +3040,11 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A114" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B114" s="33"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="9">
         <v>28</v>
       </c>
@@ -3058,11 +3056,11 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A115" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B115" s="33"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="9">
         <v>32</v>
       </c>
@@ -3074,11 +3072,11 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A116" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B116" s="33"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="9">
         <v>36</v>
       </c>
@@ -3090,11 +3088,11 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A117" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B117" s="33"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="9">
         <v>42</v>
       </c>
@@ -3106,11 +3104,11 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A118" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B118" s="33"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="9">
         <v>45</v>
       </c>
@@ -3122,11 +3120,11 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A119" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B119" s="33"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="9">
         <v>50</v>
       </c>
@@ -3138,11 +3136,11 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A120" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B120" s="33"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="9">
         <v>60</v>
       </c>
@@ -3154,16 +3152,16 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="32" t="s">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A121" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1">
       <c r="A122" s="30" t="s">
         <v>107</v>
       </c>
@@ -3178,11 +3176,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="31" t="s">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A123" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B123" s="31"/>
+      <c r="B123" s="34"/>
       <c r="C123" s="9">
         <v>10</v>
       </c>
@@ -3194,11 +3192,11 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="31" t="s">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A124" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="31"/>
+      <c r="B124" s="34"/>
       <c r="C124" s="9">
         <v>8</v>
       </c>
@@ -3210,11 +3208,11 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="31" t="s">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A125" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="31"/>
+      <c r="B125" s="34"/>
       <c r="C125" s="9">
         <v>6</v>
       </c>
@@ -3226,11 +3224,11 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="31" t="s">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A126" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="31"/>
+      <c r="B126" s="34"/>
       <c r="C126" s="13" t="s">
         <v>143</v>
       </c>
@@ -3242,11 +3240,11 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="31" t="s">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A127" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="31"/>
+      <c r="B127" s="34"/>
       <c r="C127" s="27">
         <v>0.5</v>
       </c>
@@ -3258,11 +3256,11 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="31" t="s">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A128" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B128" s="31"/>
+      <c r="B128" s="34"/>
       <c r="C128" s="27">
         <v>1.7</v>
       </c>
@@ -3274,16 +3272,16 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="32" t="s">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A129" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1">
       <c r="A130" s="30" t="s">
         <v>107</v>
       </c>
@@ -3296,11 +3294,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="31" t="s">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A131" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B131" s="31"/>
+      <c r="B131" s="34"/>
       <c r="C131" s="13"/>
       <c r="D131" s="9">
         <v>2125</v>
@@ -3310,11 +3308,11 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="31" t="s">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A132" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B132" s="31"/>
+      <c r="B132" s="34"/>
       <c r="C132" s="13"/>
       <c r="D132" s="9">
         <v>2500</v>
@@ -3324,16 +3322,16 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="32" t="s">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A133" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1">
       <c r="A134" s="30" t="s">
         <v>107</v>
       </c>
@@ -3348,11 +3346,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="31" t="s">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A135" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="31"/>
+      <c r="B135" s="34"/>
       <c r="C135" s="9">
         <v>3</v>
       </c>
@@ -3364,11 +3362,11 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="31" t="s">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A136" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B136" s="31"/>
+      <c r="B136" s="34"/>
       <c r="C136" s="9">
         <v>5</v>
       </c>
@@ -3380,11 +3378,11 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="31" t="s">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A137" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B137" s="31"/>
+      <c r="B137" s="34"/>
       <c r="C137" s="9">
         <v>7</v>
       </c>
@@ -3396,11 +3394,11 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="31" t="s">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A138" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B138" s="31"/>
+      <c r="B138" s="34"/>
       <c r="C138" s="9">
         <v>10</v>
       </c>
@@ -3412,11 +3410,11 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="31" t="s">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A139" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="31"/>
+      <c r="B139" s="34"/>
       <c r="C139" s="9">
         <v>12</v>
       </c>
@@ -3428,16 +3426,16 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="32" t="s">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A140" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1">
       <c r="A141" s="30" t="s">
         <v>107</v>
       </c>
@@ -3450,7 +3448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1">
       <c r="A142" s="38" t="s">
         <v>172</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1">
       <c r="A143" s="38" t="s">
         <v>173</v>
       </c>
@@ -3478,20 +3476,20 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="37" t="s">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A144" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A145" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B145" s="37"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="8" t="s">
         <v>201</v>
       </c>
@@ -3502,11 +3500,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="29" t="s">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A146" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="29"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="9">
         <v>20</v>
       </c>
@@ -3518,11 +3516,11 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="29" t="s">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A147" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="29"/>
+      <c r="B147" s="32"/>
       <c r="C147" s="9">
         <v>20</v>
       </c>
@@ -3534,13 +3532,13 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B148" s="29"/>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A148" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="32"/>
       <c r="C148" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>46</v>
@@ -3549,11 +3547,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="29" t="s">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A149" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="29"/>
+      <c r="B149" s="32"/>
       <c r="C149" s="13" t="s">
         <v>160</v>
       </c>
@@ -3565,11 +3563,11 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="29" t="s">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A150" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="29"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="9">
         <v>10</v>
       </c>
@@ -3581,11 +3579,11 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="29" t="s">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A151" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="29"/>
+      <c r="B151" s="32"/>
       <c r="C151" s="27">
         <v>1.5</v>
       </c>
@@ -3597,20 +3595,20 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="32" t="s">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A152" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B152" s="32"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="29" t="s">
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A153" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B153" s="29"/>
+      <c r="B153" s="32"/>
       <c r="C153" s="13" t="s">
         <v>152</v>
       </c>
@@ -3621,11 +3619,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="29" t="s">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A154" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="29"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="19">
         <v>1.32</v>
       </c>
@@ -3637,11 +3635,11 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="29" t="s">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A155" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="29"/>
+      <c r="B155" s="32"/>
       <c r="C155" s="27">
         <v>2.6</v>
       </c>
@@ -3653,11 +3651,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="29" t="s">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A156" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="29"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="27">
         <v>4.0999999999999996</v>
       </c>
@@ -3669,11 +3667,11 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="29" t="s">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A157" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="29"/>
+      <c r="B157" s="32"/>
       <c r="C157" s="9">
         <v>9</v>
       </c>
@@ -3685,11 +3683,11 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="29" t="s">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A158" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="29"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="9">
         <v>13</v>
       </c>
@@ -3701,11 +3699,11 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="29" t="s">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A159" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="29"/>
+      <c r="B159" s="32"/>
       <c r="C159" s="9">
         <v>18</v>
       </c>
@@ -3717,11 +3715,11 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="29" t="s">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A160" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="29"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="27">
         <v>18.8</v>
       </c>
@@ -3733,16 +3731,16 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="32" t="s">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A161" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-    </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1">
       <c r="A162" s="18" t="s">
         <v>107</v>
       </c>
@@ -3759,7 +3757,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1">
       <c r="A163" s="18" t="s">
         <v>163</v>
       </c>
@@ -3777,7 +3775,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1">
       <c r="A164" s="18" t="s">
         <v>164</v>
       </c>
@@ -3795,16 +3793,16 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="32" t="s">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A165" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B165" s="32"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32"/>
-    </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1">
       <c r="A166" s="18" t="s">
         <v>107</v>
       </c>
@@ -3821,7 +3819,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1">
       <c r="A167" s="18" t="s">
         <v>167</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1">
       <c r="A168" s="18" t="s">
         <v>168</v>
       </c>
@@ -3857,7 +3855,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1">
       <c r="A169" s="18" t="s">
         <v>169</v>
       </c>
@@ -3875,7 +3873,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1">
       <c r="A170" s="18" t="s">
         <v>170</v>
       </c>
@@ -3895,6 +3893,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
     <mergeCell ref="A133:E133"/>
     <mergeCell ref="A129:E129"/>
     <mergeCell ref="A27:E27"/>
@@ -3911,59 +3962,6 @@
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="A107:B107"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3972,14 +3970,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
